--- a/Arquitetura Computacional/Métrica de dados.xlsx
+++ b/Arquitetura Computacional/Métrica de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giibu\Documents\Faculdade Bandtec\Pesquisa e Inovação\ProjetoIndividual\Arquitetura Computacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FEED653-AFC9-4EA9-AA1E-4EA55C363D0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3C623-C60B-4974-A82A-30A31660F5FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B7C2204-CDED-492B-9483-AF706950924E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Quantidade de acessos</t>
   </si>
@@ -91,13 +91,31 @@
   </si>
   <si>
     <t>29 - 30</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>Ruim</t>
+  </si>
+  <si>
+    <t>Mediano</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>&lt; 6</t>
+  </si>
+  <si>
+    <t>&gt; 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +147,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +187,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -302,11 +340,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,9 +392,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,77 +425,119 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -978,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F46088-A54D-4838-9425-75E2598F1DC2}">
-  <dimension ref="B2:Y15"/>
+  <dimension ref="B2:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,46 +1106,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>_xlfn.QUARTILE.INC(B5:E13, 0)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
+      <c r="J3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -1046,28 +1165,28 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>_xlfn.QUARTILE.INC(B4:E12,1)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -1082,30 +1201,30 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>MEDIAN(B5:E13)</f>
         <v>12</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="25">
         <v>2</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -1120,34 +1239,34 @@
       <c r="E6" s="1">
         <v>16</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f>_xlfn.QUARTILE.INC(B5:E13, 3)</f>
         <v>21.5</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="25">
         <v>2</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="42">
+      <c r="K6" s="26"/>
+      <c r="L6" s="31">
         <v>5</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="42">
+      <c r="M6" s="27"/>
+      <c r="N6" s="31">
         <v>10</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1162,38 +1281,38 @@
       <c r="E7" s="1">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>_xlfn.QUARTILE.INC(B5:E13, 4)</f>
         <v>30</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="25">
         <v>1</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="31">
         <v>3</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="31">
         <v>6</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="31">
         <v>7</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="31">
         <v>9</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -1208,39 +1327,39 @@
       <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="31">
         <v>3</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="31">
         <v>5</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="31">
         <v>7</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="31">
         <v>10</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
-      <c r="Q8" s="42">
+      <c r="Q8" s="31">
         <v>15</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="42">
+      <c r="R8" s="28"/>
+      <c r="S8" s="31">
         <v>20</v>
       </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="42">
+      <c r="T8" s="28"/>
+      <c r="U8" s="31">
         <v>23</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="31">
         <v>25</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="42">
+      <c r="W8" s="29"/>
+      <c r="X8" s="33">
         <v>30</v>
       </c>
     </row>
@@ -1257,49 +1376,49 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="34">
         <v>2</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="35">
         <v>4</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="31">
         <v>5</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="35">
         <v>8</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="35">
         <v>9</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="35">
         <v>11</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="35">
         <v>13</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="35">
         <v>16</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="35">
         <v>18</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="35">
         <v>19</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="35">
         <v>21</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="35">
         <v>24</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="35">
         <v>26</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="35">
         <v>27</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="36">
         <v>30</v>
       </c>
     </row>
@@ -1316,30 +1435,30 @@
       <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="40">
         <v>1</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="24">
+      <c r="K10" s="41"/>
+      <c r="L10" s="40">
         <v>5</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="24">
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="40">
         <v>12</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="26">
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="43">
         <v>30</v>
       </c>
-      <c r="Y10" s="28"/>
+      <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -1354,30 +1473,30 @@
       <c r="E11" s="2">
         <v>26</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="25" t="s">
+      <c r="K11" s="45"/>
+      <c r="L11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="25" t="s">
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="27" t="s">
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="28"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -1392,75 +1511,129 @@
       <c r="E12" s="1">
         <v>30</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="37" t="s">
+      <c r="S12" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="37" t="s">
+      <c r="T12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="37" t="s">
+      <c r="U12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V12" s="37" t="s">
+      <c r="V12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="37" t="s">
+      <c r="W12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="39" t="s">
+      <c r="X12" s="52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="I15" s="14"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59">
+        <v>12</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J3:X3"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arquitetura Computacional/Métrica de dados.xlsx
+++ b/Arquitetura Computacional/Métrica de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giibu\Documents\Faculdade Bandtec\Pesquisa e Inovação\ProjetoIndividual\Arquitetura Computacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3C623-C60B-4974-A82A-30A31660F5FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A49D5-24FE-40AE-8224-A9452A5184FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B7C2204-CDED-492B-9483-AF706950924E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Quantidade de acessos</t>
   </si>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -381,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,9 +436,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,15 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,6 +520,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,7 +547,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F46088-A54D-4838-9425-75E2598F1DC2}">
   <dimension ref="B2:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,12 +1134,12 @@
       <c r="V2" s="16"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1134,23 +1147,23 @@
         <f>_xlfn.QUARTILE.INC(B5:E13, 0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="55"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -1172,21 +1185,21 @@
         <f>_xlfn.QUARTILE.INC(B4:E12,1)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="24"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -1208,23 +1221,23 @@
         <f>MEDIAN(B5:E13)</f>
         <v>12</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>2</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -1246,27 +1259,27 @@
         <f>_xlfn.QUARTILE.INC(B5:E13, 3)</f>
         <v>21.5</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>2</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="31">
+      <c r="K6" s="25"/>
+      <c r="L6" s="30">
         <v>5</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="31">
+      <c r="M6" s="26"/>
+      <c r="N6" s="30">
         <v>10</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1288,31 +1301,31 @@
         <f>_xlfn.QUARTILE.INC(B5:E13, 4)</f>
         <v>30</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>1</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="30">
         <v>3</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <v>6</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <v>7</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <v>9</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="29"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -1327,39 +1340,39 @@
       <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>1</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="30">
         <v>3</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <v>5</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <v>7</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <v>10</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="31">
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="30">
         <v>15</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="31">
+      <c r="R8" s="27"/>
+      <c r="S8" s="30">
         <v>20</v>
       </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="31">
+      <c r="T8" s="27"/>
+      <c r="U8" s="30">
         <v>23</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="30">
         <v>25</v>
       </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="33">
+      <c r="W8" s="28"/>
+      <c r="X8" s="32">
         <v>30</v>
       </c>
     </row>
@@ -1376,49 +1389,49 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <v>2</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>4</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <v>5</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <v>8</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="34">
         <v>9</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="34">
         <v>11</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="34">
         <v>13</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="34">
         <v>16</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="34">
         <v>18</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="34">
         <v>19</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="34">
         <v>21</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <v>24</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="34">
         <v>26</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <v>27</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="35">
         <v>30</v>
       </c>
     </row>
@@ -1435,27 +1448,29 @@
       <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="36">
         <v>1</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="40">
+      <c r="K10" s="37"/>
+      <c r="L10" s="36">
         <v>5</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="40">
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="36">
         <v>12</v>
       </c>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="43">
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="60">
+        <v>21.5</v>
+      </c>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="39">
         <v>30</v>
       </c>
       <c r="Y10" s="15"/>
@@ -1473,27 +1488,29 @@
       <c r="E11" s="2">
         <v>26</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="53" t="s">
+      <c r="K11" s="41"/>
+      <c r="L11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="53" t="s">
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="47" t="s">
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Y11" s="15"/>
@@ -1511,49 +1528,49 @@
       <c r="E12" s="1">
         <v>30</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="51" t="s">
+      <c r="N12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="51" t="s">
+      <c r="O12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="52" t="s">
+      <c r="R12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="52" t="s">
+      <c r="S12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="52" t="s">
+      <c r="T12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="52" t="s">
+      <c r="U12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="V12" s="52" t="s">
+      <c r="V12" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="52" t="s">
+      <c r="W12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="52" t="s">
+      <c r="X12" s="48" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1578,50 +1595,50 @@
       <c r="T15" s="9"/>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57" t="s">
+      <c r="F18" s="57"/>
+      <c r="G18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58" t="s">
+      <c r="H18" s="58"/>
+      <c r="I18" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59">
+      <c r="F19" s="51"/>
+      <c r="G19" s="51">
         <v>12</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59" t="s">
+      <c r="H19" s="51"/>
+      <c r="I19" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
